--- a/results.xlsx
+++ b/results.xlsx
@@ -8,15 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ws\git-workspaces\github-com\build-stuff-jmeter\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:2001_{44E6139E-18A5-4A0F-854B-DE2C3A36D985}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A76109A-679C-4DB8-A16E-0DE25F6384F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="3360" windowWidth="29040" windowHeight="17520" xr2:uid="{7E9936F2-0EA3-480D-A3CE-C60916FDE704}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{7E9936F2-0EA3-480D-A3CE-C60916FDE704}"/>
   </bookViews>
   <sheets>
     <sheet name="Demo app" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="16">
   <si>
     <t>Thresholds</t>
   </si>
@@ -76,15 +75,6 @@
   </si>
   <si>
     <t>Threads</t>
-  </si>
-  <si>
-    <t>Metric</t>
-  </si>
-  <si>
-    <t>nr/s</t>
-  </si>
-  <si>
-    <t>nr/min</t>
   </si>
   <si>
     <t>Average</t>
@@ -303,9 +293,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -316,8 +303,22 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -331,18 +332,6 @@
     <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -352,10 +341,11 @@
     <xf numFmtId="0" fontId="5" fillId="7" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -364,6 +354,126 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="16">
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9393"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9393"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9393"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9393"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9393"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9393"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color theme="1"/>
@@ -401,126 +511,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFB5E6A2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
         </patternFill>
       </fill>
     </dxf>
@@ -862,10 +852,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39F6C6E9-C61A-46FB-862D-AB8C861E3A0B}">
-  <dimension ref="A1:O12"/>
+  <dimension ref="A1:O14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+      <selection activeCell="R17" sqref="R17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -889,401 +879,684 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="13"/>
+      <c r="B1" s="18"/>
       <c r="C1" s="2">
-        <v>200</v>
+        <v>60</v>
       </c>
       <c r="D1" s="2">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="E1" s="2">
         <v>45</v>
       </c>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="9"/>
+      <c r="F1" s="2">
+        <v>60</v>
+      </c>
+      <c r="G1" s="2">
+        <v>60</v>
+      </c>
+      <c r="H1" s="2">
+        <v>60</v>
+      </c>
+      <c r="I1" s="2">
+        <v>60</v>
+      </c>
+      <c r="J1" s="8">
+        <v>60</v>
+      </c>
+      <c r="K1" s="25">
+        <v>60</v>
+      </c>
+      <c r="L1" s="18"/>
+      <c r="M1" s="18"/>
+      <c r="N1" s="18"/>
+      <c r="O1" s="26"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="13"/>
+      <c r="B2" s="18"/>
       <c r="C2" s="2">
-        <v>100</v>
+        <v>350</v>
       </c>
       <c r="D2" s="2">
         <v>2</v>
       </c>
       <c r="E2" s="2">
-        <v>48</v>
-      </c>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="9"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="9"/>
+        <v>0.8</v>
+      </c>
+      <c r="F2" s="2">
+        <v>510</v>
+      </c>
+      <c r="G2" s="2">
+        <v>520</v>
+      </c>
+      <c r="H2" s="2">
+        <v>150</v>
+      </c>
+      <c r="I2" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="J2" s="8">
+        <v>510</v>
+      </c>
+      <c r="K2" s="2">
+        <v>1.6</v>
+      </c>
+      <c r="L2" s="2">
+        <v>1.6</v>
+      </c>
+      <c r="M2" s="2">
+        <v>1.6</v>
+      </c>
+      <c r="N2" s="2">
+        <v>1.6</v>
+      </c>
+      <c r="O2" s="8">
+        <v>1.4</v>
+      </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="13"/>
-      <c r="C3" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="12"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3"/>
-      <c r="O3" s="12"/>
+      <c r="A3" s="4"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="20"/>
+      <c r="I3" s="20"/>
+      <c r="J3" s="21"/>
+      <c r="K3" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="L3" s="23"/>
+      <c r="M3" s="23"/>
+      <c r="N3" s="23"/>
+      <c r="O3" s="24"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="5"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="15"/>
-      <c r="J4" s="16"/>
-      <c r="K4" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="L4" s="22"/>
-      <c r="M4" s="22"/>
-      <c r="N4" s="22"/>
-      <c r="O4" s="23"/>
+      <c r="A4" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J4" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="M4" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="N4" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="O4" s="10" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" s="4" t="s">
+      <c r="A5" s="6">
         <v>1</v>
       </c>
-      <c r="D5" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="I5" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="J5" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="K5" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="L5" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="M5" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="N5" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="O5" s="11" t="s">
-        <v>9</v>
+      <c r="B5" s="13" t="b">
+        <f>OR(C5&lt;C$2,D5&lt;D$2,E5&lt;E$2,D5&lt;D$2,F5&lt;F$2,G5&lt;G$2,H5&lt;H$2,I5&lt;I$2,J5&lt;J$2,K5&lt;K$2,L5&lt;L$2,M5&lt;M$2,N5&lt;N$2,O5&lt;O$2)</f>
+        <v>1</v>
+      </c>
+      <c r="C5" s="1">
+        <v>347</v>
+      </c>
+      <c r="D5" s="1">
+        <v>2.1800000000000002</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0.87</v>
+      </c>
+      <c r="F5" s="1">
+        <v>603</v>
+      </c>
+      <c r="G5" s="1">
+        <v>607</v>
+      </c>
+      <c r="H5" s="1">
+        <v>165</v>
+      </c>
+      <c r="I5" s="1">
+        <v>1.69</v>
+      </c>
+      <c r="J5" s="6">
+        <v>594</v>
+      </c>
+      <c r="K5" s="1">
+        <v>2.17</v>
+      </c>
+      <c r="L5" s="1">
+        <v>1.9</v>
+      </c>
+      <c r="M5" s="1">
+        <v>1.68</v>
+      </c>
+      <c r="N5" s="1">
+        <v>1.66</v>
+      </c>
+      <c r="O5" s="6">
+        <v>1.42</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" s="7">
+      <c r="A6" s="6">
+        <v>2</v>
+      </c>
+      <c r="B6" s="13" t="b">
+        <f>OR(C6&lt;C$2,D6&lt;D$2,E6&lt;E$2,D6&lt;D$2,F6&lt;F$2,G6&lt;G$2,H6&lt;H$2,I6&lt;I$2,J6&lt;J$2,K6&lt;K$2,L6&lt;L$2,M6&lt;M$2,N6&lt;N$2,O6&lt;O$2)</f>
         <v>1</v>
       </c>
-      <c r="B6" s="26" t="b">
-        <f>OR(C6&lt;C$2,D6&lt;D$2,E6&lt;E$2)</f>
-        <v>0</v>
-      </c>
       <c r="C6" s="1">
-        <v>100</v>
+        <v>386</v>
       </c>
       <c r="D6" s="1">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="E6" s="1">
-        <v>50</v>
+        <v>0.87</v>
       </c>
       <c r="F6" s="1">
-        <v>0</v>
+        <v>602</v>
       </c>
       <c r="G6" s="1">
-        <v>0</v>
+        <v>602</v>
       </c>
       <c r="H6" s="1">
-        <v>0</v>
+        <v>165</v>
       </c>
       <c r="I6" s="1">
-        <v>0</v>
-      </c>
-      <c r="J6" s="7">
-        <v>0</v>
+        <v>1.75</v>
+      </c>
+      <c r="J6" s="6">
+        <v>590</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>1.87</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>1.92</v>
       </c>
       <c r="M6" s="1">
-        <v>0</v>
+        <v>1.85</v>
       </c>
       <c r="N6" s="1">
-        <v>0</v>
-      </c>
-      <c r="O6" s="7">
-        <v>0</v>
+        <v>1.69</v>
+      </c>
+      <c r="O6" s="6">
+        <v>1.53</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" s="7">
-        <v>2</v>
-      </c>
-      <c r="B7" s="26" t="b">
-        <f>OR(C7&lt;C$2,D7&lt;D$2,E7&lt;E$2)</f>
+      <c r="A7" s="6">
+        <v>3</v>
+      </c>
+      <c r="B7" s="13" t="b">
+        <f>OR(C7&lt;C$2,D7&lt;D$2,E7&lt;E$2,D7&lt;D$2,F7&lt;F$2,G7&lt;G$2,H7&lt;H$2,I7&lt;I$2,J7&lt;J$2,K7&lt;K$2,L7&lt;L$2,M7&lt;M$2,N7&lt;N$2,O7&lt;O$2)</f>
         <v>0</v>
       </c>
       <c r="C7" s="1">
-        <v>110</v>
+        <v>488</v>
       </c>
       <c r="D7" s="1">
-        <v>4</v>
+        <v>2.84</v>
       </c>
       <c r="E7" s="1">
-        <v>51</v>
-      </c>
-      <c r="J7" s="7"/>
-      <c r="O7" s="7"/>
+        <v>0.88</v>
+      </c>
+      <c r="F7" s="1">
+        <v>536</v>
+      </c>
+      <c r="G7" s="1">
+        <v>582</v>
+      </c>
+      <c r="H7" s="1">
+        <v>166</v>
+      </c>
+      <c r="I7" s="1">
+        <v>1.74</v>
+      </c>
+      <c r="J7" s="6">
+        <v>530</v>
+      </c>
+      <c r="K7" s="1">
+        <v>1.72</v>
+      </c>
+      <c r="L7" s="1">
+        <v>1.7</v>
+      </c>
+      <c r="M7" s="1">
+        <v>1.69</v>
+      </c>
+      <c r="N7" s="1">
+        <v>1.67</v>
+      </c>
+      <c r="O7" s="6">
+        <v>1.44</v>
+      </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" s="7">
+      <c r="A8" s="6">
         <v>3</v>
       </c>
-      <c r="B8" s="26" t="b">
-        <f>OR(C8&lt;C$2,D8&lt;D$2,E8&lt;E$2)</f>
+      <c r="B8" s="13" t="b">
+        <f>OR(C8&lt;C$2,D8&lt;D$2,E8&lt;E$2,D8&lt;D$2,F8&lt;F$2,G8&lt;G$2,H8&lt;H$2,I8&lt;I$2,J8&lt;J$2,K8&lt;K$2,L8&lt;L$2,M8&lt;M$2,N8&lt;N$2,O8&lt;O$2)</f>
         <v>1</v>
       </c>
       <c r="C8" s="1">
-        <v>90</v>
+        <v>424</v>
       </c>
       <c r="D8" s="1">
-        <v>4</v>
+        <v>2.89</v>
       </c>
       <c r="E8" s="1">
-        <v>49</v>
-      </c>
-      <c r="J8" s="7"/>
-      <c r="O8" s="7"/>
+        <v>0.86</v>
+      </c>
+      <c r="F8" s="1">
+        <v>476</v>
+      </c>
+      <c r="G8" s="1">
+        <v>462</v>
+      </c>
+      <c r="H8" s="1">
+        <v>166</v>
+      </c>
+      <c r="I8" s="1">
+        <v>1.71</v>
+      </c>
+      <c r="J8" s="6">
+        <v>466</v>
+      </c>
+      <c r="K8" s="1">
+        <v>1.77</v>
+      </c>
+      <c r="L8" s="1">
+        <v>1.77</v>
+      </c>
+      <c r="M8" s="1">
+        <v>1.76</v>
+      </c>
+      <c r="N8" s="1">
+        <v>1.65</v>
+      </c>
+      <c r="O8" s="6">
+        <v>1.48</v>
+      </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" s="7">
+      <c r="A9" s="6">
         <v>4</v>
       </c>
-      <c r="B9" s="26" t="b">
-        <f>OR(C9&lt;C$2,D9&lt;D$2,E9&lt;E$2)</f>
+      <c r="B9" s="13" t="b">
+        <f>OR(C9&lt;C$2,D9&lt;D$2,E9&lt;E$2,D9&lt;D$2,F9&lt;F$2,G9&lt;G$2,H9&lt;H$2,I9&lt;I$2,J9&lt;J$2,K9&lt;K$2,L9&lt;L$2,M9&lt;M$2,N9&lt;N$2,O9&lt;O$2)</f>
         <v>1</v>
       </c>
       <c r="C9" s="1">
-        <v>90</v>
+        <v>422</v>
       </c>
       <c r="D9" s="1">
-        <v>3</v>
+        <v>1.75</v>
       </c>
       <c r="E9" s="1">
-        <v>50</v>
-      </c>
-      <c r="J9" s="7"/>
-      <c r="O9" s="7"/>
+        <v>0.88</v>
+      </c>
+      <c r="F9" s="1">
+        <v>474</v>
+      </c>
+      <c r="G9" s="1">
+        <v>468</v>
+      </c>
+      <c r="H9" s="1">
+        <v>166</v>
+      </c>
+      <c r="I9" s="1">
+        <v>1.75</v>
+      </c>
+      <c r="J9" s="6">
+        <v>467</v>
+      </c>
+      <c r="K9" s="1">
+        <v>1.81</v>
+      </c>
+      <c r="L9" s="1">
+        <v>1.8</v>
+      </c>
+      <c r="M9" s="1">
+        <v>1.84</v>
+      </c>
+      <c r="N9" s="1">
+        <v>1.68</v>
+      </c>
+      <c r="O9" s="6">
+        <v>1.51</v>
+      </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="7"/>
-      <c r="B10" s="26"/>
-      <c r="J10" s="7"/>
-      <c r="O10" s="7"/>
+      <c r="A10" s="6">
+        <v>5</v>
+      </c>
+      <c r="B10" s="13" t="b">
+        <f>OR(C10&lt;C$2,D10&lt;D$2,E10&lt;E$2,D10&lt;D$2,F10&lt;F$2,G10&lt;G$2,H10&lt;H$2,I10&lt;I$2,J10&lt;J$2,K10&lt;K$2,L10&lt;L$2,M10&lt;M$2,N10&lt;N$2,O10&lt;O$2)</f>
+        <v>0</v>
+      </c>
+      <c r="C10" s="1">
+        <v>474</v>
+      </c>
+      <c r="D10" s="1">
+        <v>2.86</v>
+      </c>
+      <c r="E10" s="1">
+        <v>0.87</v>
+      </c>
+      <c r="F10" s="1">
+        <v>513</v>
+      </c>
+      <c r="G10" s="1">
+        <v>529</v>
+      </c>
+      <c r="H10" s="1">
+        <v>166</v>
+      </c>
+      <c r="I10" s="1">
+        <v>1.66</v>
+      </c>
+      <c r="J10" s="6">
+        <v>526</v>
+      </c>
+      <c r="K10" s="1">
+        <v>1.76</v>
+      </c>
+      <c r="L10" s="1">
+        <v>1.91</v>
+      </c>
+      <c r="M10" s="1">
+        <v>1.77</v>
+      </c>
+      <c r="N10" s="1">
+        <v>1.72</v>
+      </c>
+      <c r="O10" s="6">
+        <v>1.52</v>
+      </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11" s="20"/>
-      <c r="C11" s="24">
-        <f>AVERAGE(C6:C10)</f>
-        <v>97.5</v>
-      </c>
-      <c r="D11" s="24">
-        <f t="shared" ref="D11:O11" si="0">AVERAGE(D6:D10)</f>
-        <v>3.5</v>
-      </c>
-      <c r="E11" s="24">
-        <f t="shared" si="0"/>
-        <v>50</v>
-      </c>
-      <c r="F11" s="24">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G11" s="24">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H11" s="24">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I11" s="24">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J11" s="24">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K11" s="24">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L11" s="24">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M11" s="24">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="N11" s="24">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O11" s="25">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="A11" s="6">
+        <v>6</v>
+      </c>
+      <c r="B11" s="13" t="b">
+        <f>OR(C11&lt;C$2,D11&lt;D$2,E11&lt;E$2,D11&lt;D$2,F11&lt;F$2,G11&lt;G$2,H11&lt;H$2,I11&lt;I$2,J11&lt;J$2,K11&lt;K$2,L11&lt;L$2,M11&lt;M$2,N11&lt;N$2,O11&lt;O$2)</f>
+        <v>1</v>
+      </c>
+      <c r="C11" s="1">
+        <v>396</v>
+      </c>
+      <c r="D11" s="1">
+        <v>2.76</v>
+      </c>
+      <c r="E11" s="1">
+        <v>0.84</v>
+      </c>
+      <c r="F11" s="1">
+        <v>454</v>
+      </c>
+      <c r="G11" s="1">
+        <v>443</v>
+      </c>
+      <c r="H11" s="1">
+        <v>166</v>
+      </c>
+      <c r="I11" s="1">
+        <v>1.71</v>
+      </c>
+      <c r="J11" s="6">
+        <v>436</v>
+      </c>
+      <c r="K11" s="1">
+        <v>1.77</v>
+      </c>
+      <c r="L11" s="1">
+        <v>1.82</v>
+      </c>
+      <c r="M11" s="1">
+        <v>1.74</v>
+      </c>
+      <c r="N11" s="1">
+        <v>1.7</v>
+      </c>
+      <c r="O11" s="6">
+        <v>1.5</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12" s="18"/>
-      <c r="C12" s="24">
-        <f>MIN(C6:C10)</f>
-        <v>90</v>
-      </c>
-      <c r="D12" s="24">
-        <f t="shared" ref="D12:O12" si="1">MIN(D6:D10)</f>
-        <v>3</v>
-      </c>
-      <c r="E12" s="24">
+      <c r="A12" s="6"/>
+      <c r="B12" s="13"/>
+      <c r="J12" s="6"/>
+      <c r="O12" s="6"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="15"/>
+      <c r="C13" s="11">
+        <f>AVERAGE(C5:C12)</f>
+        <v>419.57142857142856</v>
+      </c>
+      <c r="D13" s="11">
+        <f t="shared" ref="D13:O13" si="0">AVERAGE(D5:D12)</f>
+        <v>2.3971428571428572</v>
+      </c>
+      <c r="E13" s="11">
+        <f t="shared" si="0"/>
+        <v>0.86714285714285722</v>
+      </c>
+      <c r="F13" s="11">
+        <f t="shared" si="0"/>
+        <v>522.57142857142856</v>
+      </c>
+      <c r="G13" s="11">
+        <f t="shared" si="0"/>
+        <v>527.57142857142856</v>
+      </c>
+      <c r="H13" s="11">
+        <f t="shared" si="0"/>
+        <v>165.71428571428572</v>
+      </c>
+      <c r="I13" s="11">
+        <f t="shared" si="0"/>
+        <v>1.715714285714286</v>
+      </c>
+      <c r="J13" s="11">
+        <f t="shared" si="0"/>
+        <v>515.57142857142856</v>
+      </c>
+      <c r="K13" s="11">
+        <f t="shared" si="0"/>
+        <v>1.8385714285714285</v>
+      </c>
+      <c r="L13" s="11">
+        <f t="shared" si="0"/>
+        <v>1.8314285714285714</v>
+      </c>
+      <c r="M13" s="11">
+        <f t="shared" si="0"/>
+        <v>1.7614285714285713</v>
+      </c>
+      <c r="N13" s="11">
+        <f t="shared" si="0"/>
+        <v>1.6814285714285713</v>
+      </c>
+      <c r="O13" s="12">
+        <f t="shared" si="0"/>
+        <v>1.4857142857142858</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="17"/>
+      <c r="C14" s="11">
+        <f>MIN(C5:C12)</f>
+        <v>347</v>
+      </c>
+      <c r="D14" s="11">
+        <f t="shared" ref="D14:O14" si="1">MIN(D5:D12)</f>
+        <v>1.5</v>
+      </c>
+      <c r="E14" s="11">
         <f t="shared" si="1"/>
-        <v>49</v>
-      </c>
-      <c r="F12" s="24">
+        <v>0.84</v>
+      </c>
+      <c r="F14" s="11">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G12" s="24">
+        <v>454</v>
+      </c>
+      <c r="G14" s="11">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H12" s="24">
+        <v>443</v>
+      </c>
+      <c r="H14" s="11">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I12" s="24">
+        <v>165</v>
+      </c>
+      <c r="I14" s="11">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J12" s="24">
+        <v>1.66</v>
+      </c>
+      <c r="J14" s="11">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K12" s="24">
+        <v>436</v>
+      </c>
+      <c r="K14" s="11">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L12" s="24">
+        <v>1.72</v>
+      </c>
+      <c r="L14" s="11">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="M12" s="24">
+        <v>1.7</v>
+      </c>
+      <c r="M14" s="11">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="N12" s="24">
+        <v>1.68</v>
+      </c>
+      <c r="N14" s="11">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="O12" s="25">
+        <v>1.65</v>
+      </c>
+      <c r="O14" s="12">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1.42</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="K1:O1"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
     <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C4:J4"/>
-    <mergeCell ref="K4:O4"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:J3"/>
+    <mergeCell ref="K3:O3"/>
   </mergeCells>
-  <conditionalFormatting sqref="B6:B9">
-    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
+  <conditionalFormatting sqref="B5:B11">
+    <cfRule type="cellIs" dxfId="15" priority="14" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="15" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C6:O9">
-    <cfRule type="cellIs" dxfId="0" priority="5" operator="equal">
+  <conditionalFormatting sqref="C11:O11">
+    <cfRule type="cellIs" dxfId="13" priority="13" operator="lessThan">
       <formula>C$2</formula>
     </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="17" operator="equal">
+      <formula>C$2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C5:O5">
+    <cfRule type="cellIs" dxfId="11" priority="11" operator="lessThan">
+      <formula>C$2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="12" operator="equal">
+      <formula>C$2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C6:O6">
+    <cfRule type="cellIs" dxfId="9" priority="9" operator="lessThan">
+      <formula>C$2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="10" operator="equal">
+      <formula>C$2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C7:O7">
+    <cfRule type="cellIs" dxfId="7" priority="7" operator="lessThan">
+      <formula>C$2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="8" operator="equal">
+      <formula>C$2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C8:O8">
+    <cfRule type="cellIs" dxfId="5" priority="5" operator="lessThan">
+      <formula>C$2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="6" operator="equal">
+      <formula>C$2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C9:O9">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="lessThan">
+      <formula>C$2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
+      <formula>C$2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C10:O10">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
+      <formula>C$2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
       <formula>C$2</formula>
     </cfRule>
   </conditionalFormatting>

--- a/results.xlsx
+++ b/results.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ws\git-workspaces\github-com\build-stuff-jmeter\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A76109A-679C-4DB8-A16E-0DE25F6384F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F7B1AEA-759A-4F6D-A4AF-3E5A88917B57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{7E9936F2-0EA3-480D-A3CE-C60916FDE704}"/>
+    <workbookView xWindow="2190" yWindow="2220" windowWidth="21600" windowHeight="12645" xr2:uid="{7E9936F2-0EA3-480D-A3CE-C60916FDE704}"/>
   </bookViews>
   <sheets>
     <sheet name="Demo app" sheetId="1" r:id="rId1"/>
@@ -308,6 +308,15 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -319,9 +328,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -341,139 +347,13 @@
     <xf numFmtId="0" fontId="5" fillId="7" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="60% - Accent1" xfId="2" builtinId="32"/>
     <cellStyle name="Accent1" xfId="1" builtinId="29"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="16">
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9393"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9393"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9393"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9393"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9393"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9393"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="4">
     <dxf>
       <font>
         <color theme="1"/>
@@ -855,7 +735,7 @@
   <dimension ref="A1:O14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="R17" sqref="R17"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -879,10 +759,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="18"/>
+      <c r="B1" s="14"/>
       <c r="C1" s="2">
         <v>60</v>
       </c>
@@ -907,19 +787,19 @@
       <c r="J1" s="8">
         <v>60</v>
       </c>
-      <c r="K1" s="25">
+      <c r="K1" s="15">
         <v>60</v>
       </c>
-      <c r="L1" s="18"/>
-      <c r="M1" s="18"/>
-      <c r="N1" s="18"/>
-      <c r="O1" s="26"/>
+      <c r="L1" s="14"/>
+      <c r="M1" s="14"/>
+      <c r="N1" s="14"/>
+      <c r="O1" s="16"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="18"/>
+      <c r="B2" s="14"/>
       <c r="C2" s="2">
         <v>350</v>
       </c>
@@ -963,23 +843,23 @@
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
-      <c r="C3" s="19" t="s">
+      <c r="C3" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20"/>
-      <c r="F3" s="20"/>
-      <c r="G3" s="20"/>
-      <c r="H3" s="20"/>
-      <c r="I3" s="20"/>
-      <c r="J3" s="21"/>
-      <c r="K3" s="22" t="s">
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="22"/>
+      <c r="I3" s="22"/>
+      <c r="J3" s="23"/>
+      <c r="K3" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="L3" s="23"/>
-      <c r="M3" s="23"/>
-      <c r="N3" s="23"/>
-      <c r="O3" s="24"/>
+      <c r="L3" s="25"/>
+      <c r="M3" s="25"/>
+      <c r="N3" s="25"/>
+      <c r="O3" s="26"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
@@ -1033,7 +913,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="13" t="b">
-        <f>OR(C5&lt;C$2,D5&lt;D$2,E5&lt;E$2,D5&lt;D$2,F5&lt;F$2,G5&lt;G$2,H5&lt;H$2,I5&lt;I$2,J5&lt;J$2,K5&lt;K$2,L5&lt;L$2,M5&lt;M$2,N5&lt;N$2,O5&lt;O$2)</f>
+        <f t="shared" ref="B5:B11" si="0">OR(C5&lt;C$2,D5&lt;D$2,E5&lt;E$2,D5&lt;D$2,F5&lt;F$2,G5&lt;G$2,H5&lt;H$2,I5&lt;I$2,J5&lt;J$2,K5&lt;K$2,L5&lt;L$2,M5&lt;M$2,N5&lt;N$2,O5&lt;O$2)</f>
         <v>1</v>
       </c>
       <c r="C5" s="1">
@@ -1081,7 +961,7 @@
         <v>2</v>
       </c>
       <c r="B6" s="13" t="b">
-        <f>OR(C6&lt;C$2,D6&lt;D$2,E6&lt;E$2,D6&lt;D$2,F6&lt;F$2,G6&lt;G$2,H6&lt;H$2,I6&lt;I$2,J6&lt;J$2,K6&lt;K$2,L6&lt;L$2,M6&lt;M$2,N6&lt;N$2,O6&lt;O$2)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C6" s="1">
@@ -1129,7 +1009,7 @@
         <v>3</v>
       </c>
       <c r="B7" s="13" t="b">
-        <f>OR(C7&lt;C$2,D7&lt;D$2,E7&lt;E$2,D7&lt;D$2,F7&lt;F$2,G7&lt;G$2,H7&lt;H$2,I7&lt;I$2,J7&lt;J$2,K7&lt;K$2,L7&lt;L$2,M7&lt;M$2,N7&lt;N$2,O7&lt;O$2)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="C7" s="1">
@@ -1177,7 +1057,7 @@
         <v>3</v>
       </c>
       <c r="B8" s="13" t="b">
-        <f>OR(C8&lt;C$2,D8&lt;D$2,E8&lt;E$2,D8&lt;D$2,F8&lt;F$2,G8&lt;G$2,H8&lt;H$2,I8&lt;I$2,J8&lt;J$2,K8&lt;K$2,L8&lt;L$2,M8&lt;M$2,N8&lt;N$2,O8&lt;O$2)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C8" s="1">
@@ -1187,7 +1067,7 @@
         <v>2.89</v>
       </c>
       <c r="E8" s="1">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="F8" s="1">
         <v>476</v>
@@ -1225,7 +1105,7 @@
         <v>4</v>
       </c>
       <c r="B9" s="13" t="b">
-        <f>OR(C9&lt;C$2,D9&lt;D$2,E9&lt;E$2,D9&lt;D$2,F9&lt;F$2,G9&lt;G$2,H9&lt;H$2,I9&lt;I$2,J9&lt;J$2,K9&lt;K$2,L9&lt;L$2,M9&lt;M$2,N9&lt;N$2,O9&lt;O$2)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C9" s="1">
@@ -1247,7 +1127,7 @@
         <v>166</v>
       </c>
       <c r="I9" s="1">
-        <v>1.75</v>
+        <v>1.5</v>
       </c>
       <c r="J9" s="6">
         <v>467</v>
@@ -1273,7 +1153,7 @@
         <v>5</v>
       </c>
       <c r="B10" s="13" t="b">
-        <f>OR(C10&lt;C$2,D10&lt;D$2,E10&lt;E$2,D10&lt;D$2,F10&lt;F$2,G10&lt;G$2,H10&lt;H$2,I10&lt;I$2,J10&lt;J$2,K10&lt;K$2,L10&lt;L$2,M10&lt;M$2,N10&lt;N$2,O10&lt;O$2)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="C10" s="1">
@@ -1321,7 +1201,7 @@
         <v>6</v>
       </c>
       <c r="B11" s="13" t="b">
-        <f>OR(C11&lt;C$2,D11&lt;D$2,E11&lt;E$2,D11&lt;D$2,F11&lt;F$2,G11&lt;G$2,H11&lt;H$2,I11&lt;I$2,J11&lt;J$2,K11&lt;K$2,L11&lt;L$2,M11&lt;M$2,N11&lt;N$2,O11&lt;O$2)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C11" s="1">
@@ -1371,118 +1251,118 @@
       <c r="O12" s="6"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13" s="14" t="s">
+      <c r="A13" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="15"/>
+      <c r="B13" s="18"/>
       <c r="C13" s="11">
         <f>AVERAGE(C5:C12)</f>
         <v>419.57142857142856</v>
       </c>
       <c r="D13" s="11">
-        <f t="shared" ref="D13:O13" si="0">AVERAGE(D5:D12)</f>
+        <f t="shared" ref="D13:O13" si="1">AVERAGE(D5:D12)</f>
         <v>2.3971428571428572</v>
       </c>
       <c r="E13" s="11">
-        <f t="shared" si="0"/>
-        <v>0.86714285714285722</v>
+        <f t="shared" si="1"/>
+        <v>0.85857142857142854</v>
       </c>
       <c r="F13" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>522.57142857142856</v>
       </c>
       <c r="G13" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>527.57142857142856</v>
       </c>
       <c r="H13" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>165.71428571428572</v>
       </c>
       <c r="I13" s="11">
-        <f t="shared" si="0"/>
-        <v>1.715714285714286</v>
+        <f t="shared" si="1"/>
+        <v>1.6800000000000002</v>
       </c>
       <c r="J13" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>515.57142857142856</v>
       </c>
       <c r="K13" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.8385714285714285</v>
       </c>
       <c r="L13" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.8314285714285714</v>
       </c>
       <c r="M13" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.7614285714285713</v>
       </c>
       <c r="N13" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.6814285714285713</v>
       </c>
       <c r="O13" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.4857142857142858</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" s="16" t="s">
+      <c r="A14" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="17"/>
+      <c r="B14" s="20"/>
       <c r="C14" s="11">
         <f>MIN(C5:C12)</f>
         <v>347</v>
       </c>
       <c r="D14" s="11">
-        <f t="shared" ref="D14:O14" si="1">MIN(D5:D12)</f>
+        <f t="shared" ref="D14:O14" si="2">MIN(D5:D12)</f>
         <v>1.5</v>
       </c>
       <c r="E14" s="11">
-        <f t="shared" si="1"/>
-        <v>0.84</v>
+        <f t="shared" si="2"/>
+        <v>0.8</v>
       </c>
       <c r="F14" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>454</v>
       </c>
       <c r="G14" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>443</v>
       </c>
       <c r="H14" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>165</v>
       </c>
       <c r="I14" s="11">
-        <f t="shared" si="1"/>
-        <v>1.66</v>
+        <f t="shared" si="2"/>
+        <v>1.5</v>
       </c>
       <c r="J14" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>436</v>
       </c>
       <c r="K14" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.72</v>
       </c>
       <c r="L14" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.7</v>
       </c>
       <c r="M14" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.68</v>
       </c>
       <c r="N14" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.65</v>
       </c>
       <c r="O14" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.42</v>
       </c>
     </row>
@@ -1497,62 +1377,14 @@
     <mergeCell ref="K3:O3"/>
   </mergeCells>
   <conditionalFormatting sqref="B5:B11">
-    <cfRule type="cellIs" dxfId="15" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="14" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="15" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C11:O11">
-    <cfRule type="cellIs" dxfId="13" priority="13" operator="lessThan">
-      <formula>C$2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="17" operator="equal">
-      <formula>C$2</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C5:O5">
-    <cfRule type="cellIs" dxfId="11" priority="11" operator="lessThan">
-      <formula>C$2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="12" operator="equal">
-      <formula>C$2</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C6:O6">
-    <cfRule type="cellIs" dxfId="9" priority="9" operator="lessThan">
-      <formula>C$2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="10" operator="equal">
-      <formula>C$2</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C7:O7">
-    <cfRule type="cellIs" dxfId="7" priority="7" operator="lessThan">
-      <formula>C$2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="8" operator="equal">
-      <formula>C$2</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C8:O8">
-    <cfRule type="cellIs" dxfId="5" priority="5" operator="lessThan">
-      <formula>C$2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="6" operator="equal">
-      <formula>C$2</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C9:O9">
-    <cfRule type="cellIs" dxfId="3" priority="3" operator="lessThan">
-      <formula>C$2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
-      <formula>C$2</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C10:O10">
+  <conditionalFormatting sqref="C5:O11">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
       <formula>C$2</formula>
     </cfRule>
